--- a/biology/Médecine/Biopsie_prostatique/Biopsie_prostatique.xlsx
+++ b/biology/Médecine/Biopsie_prostatique/Biopsie_prostatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La biopsie prostatique est une biopsie de la prostate par une aiguille fine. Elle permet de réaliser le diagnostic de cancer de la prostate (adénocarcinome prostatique) et d'établir le score de Gleason, de grande valeur pronostique.
 </t>
